--- a/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-practitionerrole</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-practitionerrole</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-02-15T16:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Profil créé dans le cadre du ROR pour décrire les modalités d'exercice opérationnelles du profesionnel dans la réalisation de l'offre</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -827,24 +827,27 @@
 </t>
   </si>
   <si>
-    <t>PractitionerRole.extension:optionCAAS</t>
-  </si>
-  <si>
-    <t>optionCAAS</t>
+    <t>PractitionerRole.extension:optionCAS</t>
+  </si>
+  <si>
+    <t>optionCAS</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS}
 </t>
   </si>
   <si>
-    <t>PractitionerRole.extension:ror-unit-exercise-mode</t>
-  </si>
-  <si>
-    <t>ror-unit-exercise-mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-unit-exercise-mode}
+    <t>PractitionerRole.extension:ror-practitionerrole-unit-exercise-mode</t>
+  </si>
+  <si>
+    <t>ror-practitionerrole-unit-exercise-mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-practitionerrole-unit-exercise-mode}
 </t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond au statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite.</t>
   </si>
   <si>
     <t>PractitionerRole.modifierExtension</t>
@@ -1223,28 +1226,37 @@
     <t>usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom.extension:communicationChannel</t>
   </si>
   <si>
     <t>communicationChannel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-communication-channel}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-communication-channel}
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom.extension:confidentialityLevel</t>
   </si>
   <si>
     <t>confidentialityLevel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-confidentiality-level}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-confidentiality-level}
 </t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.system</t>
@@ -1406,18 +1418,24 @@
     <t>effectiveOpeningClosingDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-effective-opening-closing-date}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-available-time-effective-opening-closing-date}
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR </t>
+  </si>
+  <si>
     <t>PractitionerRole.availableTime.extension:typeOfTime</t>
   </si>
   <si>
     <t>typeOfTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-available-time-type-of-time}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-healthcareservice-available-time-type-of-time}
 </t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour apporter un contexte à la plage horaire définie par la suite. Un planning peut être constitué de plusieurs plages horaires du même type ou de type différent.</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime.modifierExtension</t>
@@ -1858,7 +1876,7 @@
   <cols>
     <col min="1" max="1" width="66.0703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="52.58984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="31.99609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="36.94921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1866,7 +1884,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="130.046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5581,7 +5599,7 @@
         <v>132</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5661,10 +5679,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5690,16 +5708,16 @@
         <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>191</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5748,7 +5766,7 @@
         <v>136</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5777,10 +5795,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5803,17 +5821,17 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5862,7 +5880,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5877,24 +5895,24 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5920,67 +5938,67 @@
         <v>243</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q36" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5995,24 +6013,24 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6035,19 +6053,19 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -6096,7 +6114,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6108,27 +6126,27 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6151,16 +6169,16 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6210,7 +6228,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6222,13 +6240,13 @@
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
@@ -6239,10 +6257,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6265,16 +6283,16 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6324,7 +6342,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6336,13 +6354,13 @@
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6353,10 +6371,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6382,16 +6400,16 @@
         <v>178</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6420,7 +6438,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>74</v>
@@ -6438,7 +6456,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6453,13 +6471,13 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6467,10 +6485,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6496,13 +6514,13 @@
         <v>178</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6531,16 +6549,16 @@
         <v>111</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
@@ -6550,7 +6568,7 @@
         <v>136</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6565,13 +6583,13 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6579,13 +6597,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>74</v>
@@ -6610,13 +6628,13 @@
         <v>178</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6646,7 +6664,7 @@
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6664,7 +6682,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6679,13 +6697,13 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6693,13 +6711,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>74</v>
@@ -6724,13 +6742,13 @@
         <v>178</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6760,7 +6778,7 @@
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6778,7 +6796,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6793,13 +6811,13 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6807,13 +6825,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>74</v>
@@ -6838,13 +6856,13 @@
         <v>178</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6874,7 +6892,7 @@
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6892,7 +6910,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6907,13 +6925,13 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6921,13 +6939,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>74</v>
@@ -6952,13 +6970,13 @@
         <v>178</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6988,7 +7006,7 @@
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -7006,7 +7024,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7021,13 +7039,13 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -7035,13 +7053,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>74</v>
@@ -7066,13 +7084,13 @@
         <v>178</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7102,7 +7120,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -7120,7 +7138,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7135,13 +7153,13 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>
@@ -7149,13 +7167,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>74</v>
@@ -7180,13 +7198,13 @@
         <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7216,7 +7234,7 @@
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>74</v>
@@ -7234,7 +7252,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7249,13 +7267,13 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>74</v>
@@ -7263,13 +7281,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>74</v>
@@ -7294,13 +7312,13 @@
         <v>178</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7330,7 +7348,7 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>74</v>
@@ -7348,7 +7366,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7363,13 +7381,13 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>74</v>
@@ -7377,13 +7395,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>74</v>
@@ -7408,13 +7426,13 @@
         <v>178</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7444,7 +7462,7 @@
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7462,7 +7480,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7477,13 +7495,13 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>74</v>
@@ -7491,13 +7509,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>74</v>
@@ -7522,13 +7540,13 @@
         <v>178</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7558,7 +7576,7 @@
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -7576,7 +7594,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7591,13 +7609,13 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>74</v>
@@ -7605,13 +7623,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>74</v>
@@ -7636,13 +7654,13 @@
         <v>178</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7672,7 +7690,7 @@
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7690,7 +7708,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7705,13 +7723,13 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7719,10 +7737,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7745,16 +7763,16 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7804,7 +7822,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7816,27 +7834,27 @@
         <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7859,16 +7877,16 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7918,7 +7936,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7930,13 +7948,13 @@
         <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7947,10 +7965,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7973,17 +7991,17 @@
         <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -8032,7 +8050,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8044,16 +8062,16 @@
         <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>74</v>
@@ -8061,10 +8079,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8173,10 +8191,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8184,7 +8202,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>76</v>
@@ -8285,13 +8303,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
@@ -8313,13 +8331,13 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>132</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>19</v>
+        <v>392</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8399,13 +8417,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>74</v>
@@ -8415,7 +8433,7 @@
         <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -8427,13 +8445,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>132</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>19</v>
+        <v>396</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8513,13 +8531,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>74</v>
@@ -8529,7 +8547,7 @@
         <v>84</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -8541,13 +8559,13 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>132</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>19</v>
+        <v>400</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8627,10 +8645,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8656,10 +8674,10 @@
         <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>228</v>
@@ -8691,10 +8709,10 @@
         <v>181</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -8712,7 +8730,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8721,19 +8739,19 @@
         <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -8741,10 +8759,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8770,16 +8788,16 @@
         <v>146</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8828,7 +8846,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8843,13 +8861,13 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>74</v>
@@ -8857,10 +8875,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8886,16 +8904,16 @@
         <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8923,10 +8941,10 @@
         <v>181</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8944,7 +8962,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8959,13 +8977,13 @@
         <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>74</v>
@@ -8973,10 +8991,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8999,16 +9017,16 @@
         <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9058,7 +9076,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9087,10 +9105,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9113,16 +9131,16 @@
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9172,7 +9190,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9184,16 +9202,16 @@
         <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>74</v>
@@ -9201,10 +9219,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9227,16 +9245,16 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9286,7 +9304,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9304,7 +9322,7 @@
         <v>74</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>74</v>
@@ -9315,10 +9333,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9427,10 +9445,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9541,13 +9559,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>74</v>
@@ -9569,13 +9587,13 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>132</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>19</v>
+        <v>454</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9655,13 +9673,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="B69" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="C69" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>74</v>
@@ -9683,13 +9701,13 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>132</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>19</v>
+        <v>458</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9769,14 +9787,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9798,16 +9816,16 @@
         <v>131</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>191</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>74</v>
@@ -9856,7 +9874,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9885,10 +9903,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9914,10 +9932,10 @@
         <v>107</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>228</v>
@@ -9949,10 +9967,10 @@
         <v>181</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>74</v>
@@ -9970,7 +9988,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9988,7 +10006,7 @@
         <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>74</v>
@@ -9999,10 +10017,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10028,10 +10046,10 @@
         <v>243</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10082,7 +10100,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -10100,7 +10118,7 @@
         <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>74</v>
@@ -10111,10 +10129,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10137,16 +10155,16 @@
         <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10196,7 +10214,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10214,7 +10232,7 @@
         <v>74</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>74</v>
@@ -10225,10 +10243,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10251,16 +10269,16 @@
         <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10310,7 +10328,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10328,7 +10346,7 @@
         <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>74</v>
@@ -10339,10 +10357,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10365,13 +10383,13 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10422,7 +10440,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10440,7 +10458,7 @@
         <v>74</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>74</v>
@@ -10451,10 +10469,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10563,10 +10581,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10677,14 +10695,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10706,16 +10724,16 @@
         <v>131</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>191</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -10764,7 +10782,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10793,10 +10811,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10822,10 +10840,10 @@
         <v>146</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>228</v>
@@ -10878,7 +10896,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>84</v>
@@ -10907,10 +10925,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10933,16 +10951,16 @@
         <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10992,7 +11010,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -11004,13 +11022,13 @@
         <v>96</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>74</v>
@@ -11021,10 +11039,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11050,10 +11068,10 @@
         <v>146</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>228</v>
@@ -11106,7 +11124,7 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
@@ -11124,7 +11142,7 @@
         <v>74</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>74</v>
@@ -11135,10 +11153,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11161,19 +11179,19 @@
         <v>74</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>74</v>
@@ -11222,7 +11240,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11234,13 +11252,13 @@
         <v>96</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>74</v>

--- a/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="570">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T16:25:23+00:00</t>
+    <t>2023-02-16T13:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -530,6 +530,13 @@
     <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -540,6 +547,256 @@
   </si>
   <si>
     <t>ProviderName</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:name.value[x]:valueHumanName</t>
+  </si>
+  <si>
+    <t>valueHumanName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:name.value[x]:valueHumanName.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension.value[x].id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:name.value[x]:valueHumanName.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:name.value[x]:valueHumanName.use</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension.value[x].use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./NamePurpose</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:name.value[x]:valueHumanName.text</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension.value[x].text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:name.value[x]:valueHumanName.family</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension.value[x].family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>./FamilyName</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:name.value[x]:valueHumanName.given</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension.value[x].given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>./GivenNames</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:name.value[x]:valueHumanName.prefix</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension.value[x].prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>./TitleCode</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:name.value[x]:valueHumanName.suffix</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension.value[x].suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:name.value[x]:valueHumanName.period</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension.value[x].period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>PractitionerRole.extension:contracted</t>
@@ -577,9 +834,6 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>JDV_J218-CNAMAmeliSecteurConventionnement-RASS dérivé de la TRE_ R282-CNAMAmeliSecteurConventionnement</t>
   </si>
   <si>
@@ -589,26 +843,7 @@
     <t>PractitionerRole.extension:contracted.value[x].id</t>
   </si>
   <si>
-    <t>PractitionerRole.extension.value[x].id</t>
-  </si>
-  <si>
     <t>PractitionerRole.extension:contracted.value[x].extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>PractitionerRole.extension:contracted.value[x].coding</t>
@@ -720,9 +955,6 @@
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
@@ -793,9 +1025,6 @@
     <t>PractitionerRole.extension:contracted.value[x].text</t>
   </si>
   <si>
-    <t>PractitionerRole.extension.value[x].text</t>
-  </si>
-  <si>
     <t>Plain text representation of the concept</t>
   </si>
   <si>
@@ -924,25 +1153,13 @@
     <t>PractitionerRole.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>The period during which the practitioner is authorized to perform in these role(s)</t>
   </si>
   <si>
     <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>PRD-8/9 / PRA-5.4</t>
@@ -1344,9 +1561,6 @@
     <t>XTN.2 - but often indicated by field</t>
   </si>
   <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
     <t>./ContactPointPurpose</t>
   </si>
   <si>
@@ -1379,12 +1593,6 @@
   </si>
   <si>
     <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime</t>
@@ -1865,7 +2073,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN82"/>
+  <dimension ref="A1:AN92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1874,7 +2082,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.0703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="66.36328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="52.58984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="36.94921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3470,19 +3678,17 @@
         <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3497,13 +3703,13 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -3511,13 +3717,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>74</v>
@@ -3539,15 +3745,17 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3596,28 +3804,28 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>74</v>
@@ -3625,10 +3833,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3737,21 +3945,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3766,12 +3974,14 @@
         <v>131</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3838,7 +4048,7 @@
         <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -3849,10 +4059,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3860,7 +4070,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>84</v>
@@ -3869,30 +4079,32 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>74</v>
@@ -3910,13 +4122,13 @@
         <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>74</v>
@@ -3934,28 +4146,28 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3963,10 +4175,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3986,19 +4198,23 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
       </c>
@@ -4022,13 +4238,13 @@
         <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>74</v>
@@ -4046,7 +4262,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -4061,10 +4277,10 @@
         <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -4075,18 +4291,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>84</v>
@@ -4098,18 +4314,20 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>146</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -4158,7 +4376,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4167,19 +4385,19 @@
         <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
@@ -4187,14 +4405,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4210,19 +4428,19 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4260,19 +4478,19 @@
         <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4284,16 +4502,16 @@
         <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>74</v>
@@ -4301,10 +4519,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4327,20 +4545,18 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4388,7 +4604,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4403,13 +4619,13 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>74</v>
@@ -4417,10 +4633,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4431,7 +4647,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4440,18 +4656,20 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4500,25 +4718,25 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
@@ -4529,21 +4747,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4552,21 +4770,23 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4602,40 +4822,40 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4643,12 +4863,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4666,29 +4888,25 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>74</v>
@@ -4730,25 +4948,25 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4759,10 +4977,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4782,20 +5000,18 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>146</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4844,7 +5060,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4853,16 +5069,16 @@
         <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4873,10 +5089,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4887,7 +5103,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4896,23 +5112,19 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4948,37 +5160,37 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4989,10 +5201,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5000,7 +5212,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>84</v>
@@ -5012,29 +5224,27 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>74</v>
@@ -5076,25 +5286,25 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>240</v>
+        <v>98</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
@@ -5105,10 +5315,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5128,23 +5338,19 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
@@ -5168,13 +5374,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -5192,7 +5398,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5207,10 +5413,10 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>74</v>
@@ -5221,10 +5427,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5244,23 +5450,19 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>146</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5308,7 +5510,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>257</v>
+        <v>149</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5317,16 +5519,16 @@
         <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>259</v>
+        <v>105</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>74</v>
@@ -5337,23 +5539,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -5365,15 +5565,17 @@
         <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5410,19 +5612,19 @@
         <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5451,14 +5653,12 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5467,7 +5667,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5476,19 +5676,23 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>142</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5536,7 +5740,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>137</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5548,13 +5752,13 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5565,24 +5769,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5593,13 +5795,13 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>269</v>
+        <v>148</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5650,25 +5852,25 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5679,14 +5881,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5699,7 +5901,7 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>74</v>
@@ -5708,17 +5910,15 @@
         <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5766,7 +5966,7 @@
         <v>136</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>274</v>
+        <v>152</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5795,10 +5995,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5809,7 +6009,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5821,24 +6021,26 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>100</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>74</v>
@@ -5880,13 +6082,13 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>96</v>
@@ -5895,24 +6097,24 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5935,26 +6137,22 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q36" t="s" s="2">
-        <v>289</v>
-      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5998,7 +6196,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -6013,24 +6211,24 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>292</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6053,19 +6251,19 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>294</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -6114,7 +6312,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6126,27 +6324,27 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>299</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>303</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6154,7 +6352,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>84</v>
@@ -6169,18 +6367,20 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>305</v>
+        <v>146</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
       </c>
@@ -6228,7 +6428,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6240,13 +6440,13 @@
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
@@ -6257,10 +6457,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6283,18 +6483,20 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6342,7 +6544,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6354,13 +6556,13 @@
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>74</v>
+        <v>324</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6371,10 +6573,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>197</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6382,7 +6584,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>84</v>
@@ -6397,19 +6599,19 @@
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6434,11 +6636,13 @@
         <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>74</v>
@@ -6456,13 +6660,13 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
@@ -6471,13 +6675,13 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6485,22 +6689,24 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6508,20 +6714,18 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>178</v>
+        <v>336</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>142</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6546,29 +6750,31 @@
         <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>328</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6580,16 +6786,16 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>332</v>
+        <v>98</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6597,20 +6803,20 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>84</v>
@@ -6622,20 +6828,18 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
+        <v>142</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6660,11 +6864,13 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6682,7 +6888,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6694,16 +6900,16 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>332</v>
+        <v>98</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6711,23 +6917,23 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6736,20 +6942,18 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>132</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6774,11 +6978,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>339</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6796,7 +7002,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6808,16 +7014,16 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>332</v>
+        <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6825,46 +7031,46 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6888,29 +7094,31 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>342</v>
+        <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6922,16 +7130,16 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>332</v>
+        <v>98</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6939,14 +7147,12 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6955,7 +7161,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6967,18 +7173,18 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>178</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -7002,11 +7208,13 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>345</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -7024,7 +7232,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7039,28 +7247,26 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>74</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>74</v>
       </c>
@@ -7081,22 +7287,26 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="R46" t="s" s="2">
         <v>74</v>
       </c>
@@ -7116,11 +7326,13 @@
         <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -7138,13 +7350,13 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>96</v>
@@ -7153,28 +7365,26 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>74</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>74</v>
       </c>
@@ -7195,18 +7405,20 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
       </c>
@@ -7230,11 +7442,13 @@
         <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y47" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z47" t="s" s="2">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>74</v>
@@ -7252,49 +7466,47 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>74</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>84</v>
@@ -7309,16 +7521,16 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>178</v>
+        <v>376</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7344,11 +7556,13 @@
         <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y48" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z48" t="s" s="2">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>74</v>
@@ -7366,28 +7580,28 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>380</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>74</v>
@@ -7395,14 +7609,12 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7423,16 +7635,16 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>178</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>326</v>
+        <v>385</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7458,11 +7670,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7480,28 +7694,28 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>380</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>74</v>
@@ -7509,20 +7723,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>84</v>
@@ -7537,18 +7749,20 @@
         <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
+        <v>389</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7572,11 +7786,11 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -7594,7 +7808,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7609,13 +7823,13 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>331</v>
+        <v>393</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>332</v>
+        <v>394</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>74</v>
@@ -7623,20 +7837,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>76</v>
@@ -7651,16 +7863,16 @@
         <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>325</v>
+        <v>396</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7686,29 +7898,29 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>324</v>
+        <v>395</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7723,13 +7935,13 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>332</v>
+        <v>403</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7737,21 +7949,23 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7763,16 +7977,16 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>365</v>
+        <v>261</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>308</v>
+        <v>398</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7798,13 +8012,11 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>74</v>
+        <v>407</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7822,7 +8034,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7834,35 +8046,37 @@
         <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>370</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>84</v>
@@ -7874,19 +8088,19 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>372</v>
+        <v>261</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>308</v>
+        <v>398</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7912,13 +8126,11 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7936,7 +8148,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7948,16 +8160,16 @@
         <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>74</v>
@@ -7965,12 +8177,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7991,18 +8205,18 @@
         <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>261</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -8026,13 +8240,11 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -8050,7 +8262,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8062,16 +8274,16 @@
         <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>382</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>74</v>
@@ -8079,12 +8291,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8102,18 +8316,20 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>147</v>
+        <v>396</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -8138,13 +8354,11 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>74</v>
+        <v>416</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -8162,28 +8376,28 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>149</v>
+        <v>395</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>105</v>
+        <v>403</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>74</v>
@@ -8191,21 +8405,23 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>388</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -8214,18 +8430,20 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -8250,31 +8468,29 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>74</v>
+        <v>419</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>152</v>
+        <v>395</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8286,16 +8502,16 @@
         <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>74</v>
+        <v>403</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>74</v>
@@ -8303,13 +8519,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
@@ -8328,18 +8544,20 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>391</v>
+        <v>261</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -8364,13 +8582,11 @@
         <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>74</v>
+        <v>422</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -8388,7 +8604,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>152</v>
+        <v>395</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8400,16 +8616,16 @@
         <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>74</v>
+        <v>403</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>74</v>
@@ -8417,20 +8633,20 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>84</v>
@@ -8442,18 +8658,20 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>395</v>
+        <v>261</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
@@ -8478,13 +8696,11 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>74</v>
+        <v>425</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>74</v>
@@ -8502,7 +8718,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>152</v>
+        <v>395</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8514,16 +8730,16 @@
         <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>74</v>
+        <v>403</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -8531,20 +8747,20 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>84</v>
@@ -8556,18 +8772,20 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>399</v>
+        <v>261</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>74</v>
@@ -8592,13 +8810,11 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>74</v>
+        <v>428</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -8616,7 +8832,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>152</v>
+        <v>395</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8628,16 +8844,16 @@
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>74</v>
+        <v>403</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>74</v>
@@ -8645,12 +8861,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>74</v>
       </c>
@@ -8671,16 +8889,16 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>228</v>
+        <v>398</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8706,13 +8924,11 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -8730,28 +8946,28 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>407</v>
+        <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -8759,21 +8975,23 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -8785,20 +9003,18 @@
         <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>74</v>
       </c>
@@ -8822,13 +9038,11 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>74</v>
+        <v>434</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8846,13 +9060,13 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>96</v>
@@ -8861,13 +9075,13 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>74</v>
@@ -8875,10 +9089,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8889,32 +9103,30 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>107</v>
+        <v>436</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8938,13 +9150,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>425</v>
+        <v>74</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>426</v>
+        <v>74</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8962,39 +9174,39 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>380</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>428</v>
+        <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>74</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9002,7 +9214,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>84</v>
@@ -9014,19 +9226,19 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9076,25 +9288,25 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>380</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>105</v>
+        <v>446</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>105</v>
+        <v>447</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -9105,10 +9317,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9131,18 +9343,18 @@
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>294</v>
+        <v>449</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>74</v>
       </c>
@@ -9190,28 +9402,28 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>299</v>
+        <v>453</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>98</v>
+        <v>454</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>74</v>
@@ -9219,10 +9431,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9245,17 +9457,15 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>444</v>
+        <v>146</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>445</v>
+        <v>147</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
@@ -9304,25 +9514,25 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>443</v>
+        <v>149</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>448</v>
+        <v>105</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>74</v>
@@ -9333,10 +9543,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9344,10 +9554,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>75</v>
+        <v>459</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
@@ -9359,13 +9569,13 @@
         <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9404,37 +9614,37 @@
         <v>74</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>74</v>
@@ -9445,21 +9655,23 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="D67" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
@@ -9471,17 +9683,15 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>131</v>
+        <v>462</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -9518,16 +9728,16 @@
         <v>74</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>152</v>
@@ -9548,7 +9758,7 @@
         <v>74</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9559,23 +9769,23 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -9587,13 +9797,13 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>132</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9673,23 +9883,23 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -9701,13 +9911,13 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>132</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9787,46 +9997,44 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>460</v>
+        <v>74</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9850,13 +10058,13 @@
         <v>74</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>74</v>
+        <v>475</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>74</v>
+        <v>476</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>74</v>
@@ -9874,28 +10082,28 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>96</v>
+        <v>478</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>74</v>
+        <v>479</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>98</v>
+        <v>480</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>74</v>
+        <v>481</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>74</v>
@@ -9903,10 +10111,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9914,10 +10122,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -9926,21 +10134,23 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9964,13 +10174,13 @@
         <v>74</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>467</v>
+        <v>74</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>468</v>
+        <v>74</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>74</v>
@@ -9988,13 +10198,13 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>96</v>
@@ -10003,13 +10213,13 @@
         <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>74</v>
+        <v>488</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>74</v>
@@ -10017,10 +10227,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10037,22 +10247,26 @@
         <v>74</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>74</v>
       </c>
@@ -10076,13 +10290,13 @@
         <v>74</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>74</v>
+        <v>496</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>74</v>
+        <v>497</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>74</v>
@@ -10100,7 +10314,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -10115,13 +10329,13 @@
         <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>74</v>
+        <v>499</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>448</v>
+        <v>194</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>74</v>
+        <v>500</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>74</v>
@@ -10129,10 +10343,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10152,19 +10366,19 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10214,7 +10428,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10229,10 +10443,10 @@
         <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>448</v>
+        <v>105</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>74</v>
@@ -10243,10 +10457,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10266,19 +10480,19 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>473</v>
+        <v>243</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>476</v>
+        <v>246</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10328,7 +10542,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10340,16 +10554,16 @@
         <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>448</v>
+        <v>251</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>74</v>
@@ -10357,10 +10571,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10371,7 +10585,7 @@
         <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
@@ -10383,15 +10597,17 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>74</v>
@@ -10440,7 +10656,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10458,7 +10674,7 @@
         <v>74</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>74</v>
@@ -10469,10 +10685,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10581,14 +10797,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10610,13 +10826,13 @@
         <v>131</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10695,14 +10911,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="D78" t="s" s="2">
-        <v>460</v>
+        <v>74</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10715,26 +10933,22 @@
         <v>74</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>131</v>
+        <v>521</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>461</v>
+        <v>132</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10782,7 +10996,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>463</v>
+        <v>152</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10800,7 +11014,7 @@
         <v>74</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
@@ -10811,21 +11025,23 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>74</v>
@@ -10837,17 +11053,15 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>146</v>
+        <v>525</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>487</v>
+        <v>132</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -10896,25 +11110,25 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>486</v>
+        <v>152</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>74</v>
@@ -10925,44 +11139,46 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>527</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>489</v>
+        <v>527</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>74</v>
+        <v>528</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>294</v>
+        <v>131</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>491</v>
+        <v>530</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
       </c>
@@ -11010,25 +11226,25 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>489</v>
+        <v>531</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>492</v>
+        <v>74</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>448</v>
+        <v>98</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>74</v>
@@ -11039,10 +11255,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11053,7 +11269,7 @@
         <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>74</v>
@@ -11065,16 +11281,16 @@
         <v>74</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11100,13 +11316,13 @@
         <v>74</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>74</v>
+        <v>535</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>74</v>
+        <v>536</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>74</v>
@@ -11124,13 +11340,13 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>96</v>
@@ -11142,7 +11358,7 @@
         <v>74</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>74</v>
@@ -11153,10 +11369,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11167,7 +11383,7 @@
         <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>74</v>
@@ -11179,20 +11395,16 @@
         <v>74</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>497</v>
+        <v>318</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>74</v>
       </c>
@@ -11240,30 +11452,1170 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN82" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="613">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>ROR_PractitionerRole</t>
+    <t>RORPractitionerRole</t>
   </si>
   <si>
     <t>Title</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:28:22+00:00</t>
+    <t>2023-02-17T16:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -317,13 +317,193 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>PractitionerRole.implicitRules</t>
+    <t>PractitionerRole.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>PractitionerRole.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -334,9 +514,6 @@
   </si>
   <si>
     <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>PractitionerRole.language</t>
@@ -419,31 +596,13 @@
     <t>PractitionerRole.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>PractitionerRole.extension:name</t>
@@ -468,26 +627,10 @@
     <t>PractitionerRole.extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>PractitionerRole.extension:name.extension</t>
   </si>
   <si>
     <t>PractitionerRole.extension.extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>PractitionerRole.extension:name.url</t>
@@ -571,19 +714,6 @@
     <t>PractitionerRole.extension.value[x].extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>PractitionerRole.extension:name.value[x]:valueHumanName.use</t>
   </si>
   <si>
@@ -600,9 +730,6 @@
   </si>
   <si>
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The use of a human name.</t>
@@ -852,10 +979,6 @@
     <t>PractitionerRole.extension.value[x].coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -1063,6 +1186,16 @@
   </si>
   <si>
     <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS}
+</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:mailboxMSS</t>
+  </si>
+  <si>
+    <t>mailboxMSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/mailboxMSS}
 </t>
   </si>
   <si>
@@ -2073,7 +2206,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AN101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2484,7 +2617,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>84</v>
@@ -2605,10 +2738,10 @@
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>100</v>
@@ -2619,9 +2752,7 @@
       <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>74</v>
@@ -2670,7 +2801,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2679,16 +2810,16 @@
         <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>74</v>
@@ -2699,21 +2830,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2760,28 +2891,28 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>114</v>
@@ -2790,19 +2921,19 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>74</v>
@@ -2813,14 +2944,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2836,19 +2967,19 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2898,7 +3029,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2916,7 +3047,7 @@
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -2927,21 +3058,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -2950,19 +3081,19 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3012,25 +3143,25 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -3041,10 +3172,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3052,11 +3183,11 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
       </c>
@@ -3064,18 +3195,20 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>74</v>
@@ -3112,37 +3245,37 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -3153,14 +3286,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>74</v>
       </c>
@@ -3169,7 +3300,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -3178,18 +3309,20 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -3238,7 +3371,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -3250,13 +3383,13 @@
         <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -3267,10 +3400,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3281,7 +3414,7 @@
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -3290,18 +3423,20 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -3326,13 +3461,13 @@
         <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>74</v>
@@ -3350,25 +3485,25 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -3382,7 +3517,7 @@
         <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3393,7 +3528,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -3402,18 +3537,20 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -3438,31 +3575,29 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3474,13 +3609,13 @@
         <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>74</v>
@@ -3491,10 +3626,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3502,7 +3637,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>84</v>
@@ -3511,22 +3646,22 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3534,7 +3669,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>74</v>
@@ -3576,25 +3711,25 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -3605,10 +3740,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3631,16 +3766,16 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3666,29 +3801,31 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3703,13 +3840,13 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -3717,16 +3854,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3745,16 +3880,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3804,7 +3939,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3819,13 +3954,13 @@
         <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>74</v>
@@ -3833,21 +3968,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3859,15 +3994,17 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3916,13 +4053,13 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
@@ -3934,7 +4071,7 @@
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3945,18 +4082,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
@@ -3971,17 +4108,15 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -4018,19 +4153,19 @@
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -4042,13 +4177,13 @@
         <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -4059,12 +4194,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>74</v>
       </c>
@@ -4079,26 +4216,22 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
@@ -4122,52 +4255,52 @@
         <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -4175,10 +4308,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4198,23 +4331,19 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>74</v>
       </c>
@@ -4262,7 +4391,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -4271,16 +4400,16 @@
         <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -4291,21 +4420,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -4314,20 +4443,18 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -4364,40 +4491,40 @@
         <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
@@ -4405,21 +4532,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -4428,19 +4555,19 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4448,7 +4575,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>74</v>
@@ -4490,28 +4617,28 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>74</v>
@@ -4519,10 +4646,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4533,7 +4660,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4542,19 +4669,19 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4592,25 +4719,23 @@
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>96</v>
@@ -4619,13 +4744,13 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>74</v>
@@ -4633,12 +4758,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4647,7 +4774,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4656,19 +4783,19 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4718,13 +4845,13 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>96</v>
@@ -4733,13 +4860,13 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4747,10 +4874,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4770,23 +4897,19 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4834,7 +4957,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4843,19 +4966,19 @@
         <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4863,23 +4986,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4891,15 +5012,17 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4936,19 +5059,19 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4960,7 +5083,7 @@
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -4977,10 +5100,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4997,22 +5120,26 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
@@ -5036,13 +5163,13 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -5060,7 +5187,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -5069,19 +5196,19 @@
         <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -5089,10 +5216,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5103,7 +5230,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -5112,19 +5239,23 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -5160,37 +5291,37 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -5201,14 +5332,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5224,19 +5355,19 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5244,7 +5375,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>74</v>
@@ -5286,28 +5417,28 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -5315,21 +5446,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -5338,18 +5469,20 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -5374,13 +5507,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -5398,13 +5531,13 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>96</v>
@@ -5413,13 +5546,13 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -5430,7 +5563,7 @@
         <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5441,7 +5574,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -5450,18 +5583,20 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5510,28 +5645,28 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>105</v>
+        <v>273</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5539,14 +5674,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>178</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5562,19 +5697,19 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>180</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5612,19 +5747,19 @@
         <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5636,13 +5771,13 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>98</v>
+        <v>281</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -5653,10 +5788,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5667,7 +5802,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5679,19 +5814,19 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5740,28 +5875,28 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5769,12 +5904,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5795,13 +5932,13 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>146</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5852,25 +5989,25 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5881,21 +6018,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5907,17 +6044,15 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5954,37 +6089,37 @@
         <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5995,10 +6130,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6009,7 +6144,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -6018,29 +6153,25 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>74</v>
@@ -6070,37 +6201,37 @@
         <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>289</v>
+        <v>114</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>291</v>
+        <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -6111,10 +6242,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6122,7 +6253,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>84</v>
@@ -6134,19 +6265,19 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
+        <v>201</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>296</v>
+        <v>203</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6154,7 +6285,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>74</v>
@@ -6196,25 +6327,25 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>299</v>
+        <v>98</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -6225,10 +6356,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6248,23 +6379,19 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O37" t="s" s="2">
         <v>304</v>
       </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
@@ -6288,13 +6415,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -6312,7 +6439,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6327,10 +6454,10 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>307</v>
+        <v>98</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -6341,10 +6468,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
+        <v>222</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6364,23 +6491,19 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>101</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>74</v>
       </c>
@@ -6428,7 +6551,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>313</v>
+        <v>103</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6437,16 +6560,16 @@
         <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>314</v>
+        <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>315</v>
+        <v>104</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
@@ -6457,21 +6580,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
+        <v>224</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -6480,23 +6603,21 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>318</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6532,37 +6653,37 @@
         <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>114</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6573,10 +6694,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>197</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6587,7 +6708,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6599,19 +6720,19 @@
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6660,13 +6781,13 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
@@ -6675,10 +6796,10 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -6689,14 +6810,12 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6717,13 +6836,13 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>336</v>
+        <v>100</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6774,25 +6893,25 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -6803,23 +6922,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6831,15 +6948,17 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6876,19 +6995,19 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6900,7 +7019,7 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
@@ -6917,24 +7036,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6942,25 +7059,29 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>342</v>
+        <v>128</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>132</v>
+        <v>324</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>74</v>
@@ -7002,25 +7123,25 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>74</v>
+        <v>330</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -7031,46 +7152,44 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J44" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -7106,37 +7225,37 @@
         <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>74</v>
+        <v>338</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>98</v>
+        <v>339</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -7147,10 +7266,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7161,7 +7280,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -7173,17 +7292,19 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>163</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -7232,13 +7353,13 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>96</v>
@@ -7247,24 +7368,24 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>356</v>
+        <v>74</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>357</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7287,26 +7408,24 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>318</v>
+        <v>100</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>361</v>
+        <v>270</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q46" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
         <v>74</v>
       </c>
@@ -7350,7 +7469,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7365,24 +7484,24 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>366</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7405,19 +7524,19 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>243</v>
+        <v>358</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>246</v>
+        <v>361</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -7466,7 +7585,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7478,27 +7597,27 @@
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>249</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>373</v>
+        <v>74</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>374</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>238</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7506,7 +7625,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>84</v>
@@ -7521,18 +7640,20 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7580,7 +7701,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7592,13 +7713,13 @@
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>380</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>74</v>
+        <v>372</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
@@ -7609,12 +7730,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7632,20 +7755,18 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>384</v>
+        <v>193</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7694,25 +7815,25 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>382</v>
+        <v>189</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>380</v>
+        <v>115</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>386</v>
+        <v>98</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7723,18 +7844,20 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>84</v>
@@ -7746,23 +7869,19 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>261</v>
+        <v>379</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>388</v>
+        <v>193</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7786,29 +7905,31 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="Y50" s="2"/>
-      <c r="Z50" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7820,16 +7941,16 @@
         <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>393</v>
+        <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>394</v>
+        <v>98</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>373</v>
+        <v>74</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>74</v>
@@ -7837,18 +7958,20 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>76</v>
@@ -7860,20 +7983,18 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>261</v>
+        <v>382</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>396</v>
+        <v>193</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -7898,29 +8019,31 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>399</v>
+        <v>74</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>400</v>
+        <v>74</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>395</v>
+        <v>189</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7932,16 +8055,16 @@
         <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>403</v>
+        <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7949,13 +8072,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>395</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>74</v>
@@ -7965,7 +8088,7 @@
         <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7974,20 +8097,18 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>261</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>396</v>
+        <v>187</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -8012,29 +8133,31 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="Y52" s="2"/>
-      <c r="Z52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8046,16 +8169,16 @@
         <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>403</v>
+        <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>74</v>
@@ -8063,46 +8186,46 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>74</v>
       </c>
@@ -8126,29 +8249,31 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>410</v>
+        <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8160,16 +8285,16 @@
         <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>403</v>
+        <v>98</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>74</v>
@@ -8177,14 +8302,12 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>74</v>
       </c>
@@ -8205,18 +8328,18 @@
         <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>261</v>
+        <v>393</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -8240,11 +8363,13 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>413</v>
+        <v>74</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -8262,7 +8387,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8277,28 +8402,26 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>74</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8319,22 +8442,26 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>261</v>
+        <v>358</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="R55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8354,11 +8481,13 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>416</v>
+        <v>74</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -8376,13 +8505,13 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>96</v>
@@ -8391,28 +8520,26 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>74</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>74</v>
       </c>
@@ -8433,18 +8560,20 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>74</v>
       </c>
@@ -8468,11 +8597,13 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>419</v>
+        <v>74</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -8490,49 +8621,47 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>74</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>84</v>
@@ -8547,16 +8676,16 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>261</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8582,11 +8711,13 @@
         <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>422</v>
+        <v>74</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -8604,28 +8735,28 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>423</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>74</v>
@@ -8633,14 +8764,12 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8661,16 +8790,16 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>261</v>
+        <v>426</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8696,50 +8825,52 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AA58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>97</v>
+        <v>423</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -8747,20 +8878,18 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>84</v>
@@ -8775,18 +8904,20 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8810,11 +8941,11 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -8832,7 +8963,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8847,13 +8978,13 @@
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>74</v>
@@ -8861,23 +8992,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -8889,16 +9018,16 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8924,29 +9053,29 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8961,13 +9090,13 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -8975,23 +9104,23 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -9003,16 +9132,16 @@
         <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9038,11 +9167,11 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -9060,7 +9189,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9075,13 +9204,13 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>74</v>
@@ -9089,12 +9218,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>74</v>
       </c>
@@ -9103,7 +9234,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -9115,16 +9246,16 @@
         <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>436</v>
+        <v>302</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9150,13 +9281,11 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>74</v>
+        <v>453</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -9174,7 +9303,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9186,35 +9315,37 @@
         <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>380</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>74</v>
+        <v>445</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>441</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>84</v>
@@ -9226,19 +9357,19 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>443</v>
+        <v>302</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9264,13 +9395,11 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>74</v>
+        <v>456</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -9288,7 +9417,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9300,16 +9429,16 @@
         <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>380</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -9317,12 +9446,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>74</v>
       </c>
@@ -9343,18 +9474,18 @@
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>449</v>
+        <v>302</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
       </c>
@@ -9378,13 +9509,11 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>74</v>
+        <v>459</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -9402,7 +9531,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9414,16 +9543,16 @@
         <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>453</v>
+        <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>74</v>
@@ -9431,12 +9560,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>74</v>
       </c>
@@ -9454,18 +9585,20 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>147</v>
+        <v>439</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
@@ -9490,13 +9623,11 @@
         <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>74</v>
+        <v>462</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -9514,28 +9645,28 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>149</v>
+        <v>438</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>74</v>
+        <v>445</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>105</v>
+        <v>446</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>74</v>
+        <v>447</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>74</v>
@@ -9543,21 +9674,23 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>459</v>
+        <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
@@ -9566,18 +9699,20 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>131</v>
+        <v>302</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>132</v>
+        <v>439</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9602,31 +9737,29 @@
         <v>74</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>74</v>
+        <v>465</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>152</v>
+        <v>438</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9638,16 +9771,16 @@
         <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>74</v>
+        <v>445</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>74</v>
+        <v>446</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>74</v>
+        <v>447</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>74</v>
@@ -9655,13 +9788,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>74</v>
@@ -9680,18 +9813,20 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>462</v>
+        <v>302</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>132</v>
+        <v>439</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -9716,13 +9851,11 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>74</v>
+        <v>468</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9740,7 +9873,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>152</v>
+        <v>438</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9752,16 +9885,16 @@
         <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>74</v>
+        <v>445</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>74</v>
+        <v>446</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>74</v>
+        <v>447</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>74</v>
@@ -9769,20 +9902,20 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>84</v>
@@ -9794,18 +9927,20 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>466</v>
+        <v>302</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>132</v>
+        <v>439</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -9830,13 +9965,11 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>74</v>
+        <v>471</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9854,7 +9987,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>152</v>
+        <v>438</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9866,16 +9999,16 @@
         <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>74</v>
+        <v>445</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>74</v>
+        <v>446</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>74</v>
+        <v>447</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>74</v>
@@ -9883,20 +10016,20 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>84</v>
@@ -9908,18 +10041,20 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>470</v>
+        <v>302</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>132</v>
+        <v>439</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9944,13 +10079,11 @@
         <v>74</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>74</v>
+        <v>474</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>74</v>
@@ -9968,7 +10101,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>152</v>
+        <v>438</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9980,16 +10113,16 @@
         <v>96</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>74</v>
+        <v>445</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>74</v>
+        <v>446</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>74</v>
+        <v>447</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>74</v>
@@ -9997,12 +10130,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>74</v>
       </c>
@@ -10011,7 +10146,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -10023,16 +10158,16 @@
         <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>229</v>
+        <v>441</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10058,13 +10193,11 @@
         <v>74</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>74</v>
@@ -10082,28 +10215,28 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>478</v>
+        <v>96</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>74</v>
@@ -10111,10 +10244,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10122,10 +10255,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -10137,20 +10270,18 @@
         <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>146</v>
+        <v>479</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>74</v>
       </c>
@@ -10198,39 +10329,39 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>97</v>
+        <v>423</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>488</v>
+        <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>74</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10238,7 +10369,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>84</v>
@@ -10247,26 +10378,24 @@
         <v>74</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>107</v>
+        <v>486</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>74</v>
       </c>
@@ -10290,13 +10419,13 @@
         <v>74</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>496</v>
+        <v>74</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>497</v>
+        <v>74</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>74</v>
@@ -10314,28 +10443,28 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>97</v>
+        <v>423</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>194</v>
+        <v>490</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>500</v>
+        <v>74</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>74</v>
@@ -10343,10 +10472,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10369,18 +10498,18 @@
         <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>74</v>
       </c>
@@ -10428,28 +10557,28 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>97</v>
+        <v>496</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>105</v>
+        <v>497</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>105</v>
+        <v>498</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>74</v>
+        <v>499</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>74</v>
@@ -10457,10 +10586,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10480,20 +10609,18 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>243</v>
+        <v>100</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>508</v>
+        <v>101</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>74</v>
@@ -10542,7 +10669,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>510</v>
+        <v>103</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10551,19 +10678,19 @@
         <v>84</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>74</v>
@@ -10571,10 +10698,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10582,10 +10709,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>75</v>
+        <v>502</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
@@ -10597,17 +10724,15 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>512</v>
+        <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>513</v>
+        <v>187</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>74</v>
@@ -10644,19 +10769,19 @@
         <v>74</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>511</v>
+        <v>114</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10668,13 +10793,13 @@
         <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>516</v>
+        <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>74</v>
@@ -10685,12 +10810,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>74</v>
       </c>
@@ -10711,13 +10838,13 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>146</v>
+        <v>505</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>148</v>
+        <v>506</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10768,25 +10895,25 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10797,21 +10924,23 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="D77" t="s" s="2">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>74</v>
@@ -10823,17 +10952,15 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>131</v>
+        <v>509</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10870,19 +10997,19 @@
         <v>74</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10894,13 +11021,13 @@
         <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>74</v>
@@ -10911,23 +11038,23 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>74</v>
@@ -10939,13 +11066,13 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10996,7 +11123,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -11008,7 +11135,7 @@
         <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>74</v>
@@ -11025,14 +11152,12 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
         <v>74</v>
       </c>
@@ -11041,7 +11166,7 @@
         <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>74</v>
@@ -11050,18 +11175,20 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>525</v>
+        <v>163</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>132</v>
+        <v>516</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -11086,13 +11213,13 @@
         <v>74</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>74</v>
+        <v>518</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>74</v>
+        <v>519</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>74</v>
@@ -11110,28 +11237,28 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>152</v>
+        <v>520</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>96</v>
+        <v>521</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>74</v>
+        <v>522</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>74</v>
+        <v>523</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>74</v>
+        <v>524</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>74</v>
@@ -11139,45 +11266,45 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>528</v>
+        <v>74</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O80" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -11226,28 +11353,28 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>74</v>
+        <v>531</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>98</v>
+        <v>532</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>74</v>
+        <v>533</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>74</v>
@@ -11255,10 +11382,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11269,30 +11396,32 @@
         <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>74</v>
       </c>
@@ -11316,13 +11445,13 @@
         <v>74</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>74</v>
@@ -11340,13 +11469,13 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>96</v>
@@ -11355,13 +11484,13 @@
         <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>74</v>
+        <v>542</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>516</v>
+        <v>235</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>74</v>
+        <v>543</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>74</v>
@@ -11369,10 +11498,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11392,18 +11521,20 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>318</v>
+        <v>545</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>547</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>74</v>
@@ -11452,7 +11583,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11467,10 +11598,10 @@
         <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>516</v>
+        <v>104</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>74</v>
@@ -11481,10 +11612,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11504,19 +11635,19 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>541</v>
+        <v>284</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>544</v>
+        <v>287</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11566,7 +11697,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11578,16 +11709,16 @@
         <v>96</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>516</v>
+        <v>292</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>74</v>
@@ -11595,10 +11726,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11621,16 +11752,16 @@
         <v>74</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11680,13 +11811,13 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>96</v>
@@ -11698,7 +11829,7 @@
         <v>74</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>74</v>
@@ -11709,10 +11840,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11723,7 +11854,7 @@
         <v>75</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>74</v>
@@ -11735,13 +11866,13 @@
         <v>74</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>512</v>
+        <v>100</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>549</v>
+        <v>101</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>550</v>
+        <v>102</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11792,25 +11923,25 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>548</v>
+        <v>103</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>516</v>
+        <v>104</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>74</v>
@@ -11821,21 +11952,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>74</v>
@@ -11847,15 +11978,17 @@
         <v>74</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>74</v>
@@ -11892,37 +12025,37 @@
         <v>74</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>74</v>
@@ -11933,14 +12066,16 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="D87" t="s" s="2">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11959,17 +12094,15 @@
         <v>74</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>131</v>
+        <v>564</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>74</v>
@@ -12006,19 +12139,19 @@
         <v>74</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -12030,13 +12163,13 @@
         <v>96</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>74</v>
@@ -12047,14 +12180,16 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="D88" t="s" s="2">
-        <v>528</v>
+        <v>74</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12067,26 +12202,22 @@
         <v>74</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>131</v>
+        <v>568</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>529</v>
+        <v>187</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>74</v>
       </c>
@@ -12134,7 +12265,7 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>531</v>
+        <v>114</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -12146,13 +12277,13 @@
         <v>96</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>74</v>
@@ -12163,44 +12294,46 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>74</v>
+        <v>571</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>74</v>
       </c>
@@ -12248,25 +12381,25 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>74</v>
@@ -12277,10 +12410,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12291,7 +12424,7 @@
         <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>74</v>
@@ -12303,16 +12436,16 @@
         <v>74</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12338,13 +12471,13 @@
         <v>74</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>74</v>
+        <v>578</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>74</v>
+        <v>579</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>74</v>
@@ -12362,25 +12495,25 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>249</v>
+        <v>97</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>560</v>
+        <v>74</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>74</v>
@@ -12391,10 +12524,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12417,17 +12550,15 @@
         <v>74</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>146</v>
+        <v>358</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>74</v>
@@ -12476,7 +12607,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -12494,7 +12625,7 @@
         <v>74</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>74</v>
@@ -12505,10 +12636,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12519,7 +12650,7 @@
         <v>75</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>74</v>
@@ -12531,20 +12662,18 @@
         <v>74</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>74</v>
       </c>
@@ -12592,30 +12721,1056 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>380</v>
+        <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN92" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:20:54+00:00</t>
+    <t>2023-02-23T08:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3709" uniqueCount="620">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-practitionerrole</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-practitionerrole</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:32:00+00:00</t>
+    <t>2023-02-23T11:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -492,13 +492,31 @@
     <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Slicing pour gérer le code région définissant la région source des données</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.tag:codeRegion</t>
+  </si>
+  <si>
+    <t>codeRegion</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
   </si>
   <si>
     <t>PractitionerRole.implicitRules</t>
@@ -1195,7 +1213,7 @@
     <t>ror-practitionerrole-unit-exercise-mode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-practitionerrole-unit-exercise-mode}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-practitionerrole-unit-exercise-mode}
 </t>
   </si>
   <si>
@@ -1566,7 +1584,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -1579,7 +1597,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -1592,7 +1610,7 @@
     <t>ror-telecom-communication-channel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-communication-channel}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
 </t>
   </si>
   <si>
@@ -1749,7 +1767,7 @@
     <t>ror-available-time-effective-opening-closing-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-available-time-effective-opening-closing-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-available-time-effective-opening-closing-date}
 </t>
   </si>
   <si>
@@ -1762,7 +1780,7 @@
     <t>ror-available-time-type-of-time</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-available-time-type-of-time}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-available-time-type-of-time}
 </t>
   </si>
   <si>
@@ -1775,7 +1793,7 @@
     <t>ror-available-time-number-days-of-week</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-available-time-number-days-of-week}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-available-time-number-days-of-week}
 </t>
   </si>
   <si>
@@ -2209,7 +2227,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN101"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2228,7 +2246,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.25390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="115.20703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2246,7 +2264,7 @@
     <col min="26" max="26" width="133.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3580,27 +3598,29 @@
       <c r="X12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Y12" s="2"/>
+      <c r="Y12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3629,12 +3649,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>74</v>
       </c>
@@ -3649,22 +3671,22 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3690,13 +3712,11 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -3714,13 +3734,13 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>96</v>
@@ -3729,10 +3749,10 @@
         <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -3743,10 +3763,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3763,13 +3783,13 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>164</v>
@@ -3804,31 +3824,31 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3857,14 +3877,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3883,16 +3903,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3918,13 +3938,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3942,7 +3962,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3960,7 +3980,7 @@
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3971,21 +3991,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3997,16 +4017,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4056,25 +4076,25 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -4085,18 +4105,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
@@ -4111,15 +4131,17 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -4156,19 +4178,19 @@
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -4177,16 +4199,16 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -4197,23 +4219,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -4225,7 +4245,7 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>193</v>
@@ -4270,19 +4290,19 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -4300,7 +4320,7 @@
         <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -4311,12 +4331,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>74</v>
       </c>
@@ -4337,13 +4359,13 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4394,25 +4416,25 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -4423,10 +4445,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4437,7 +4459,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -4449,13 +4471,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4494,37 +4516,37 @@
         <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -4535,10 +4557,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4546,10 +4568,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -4561,24 +4583,22 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>74</v>
@@ -4608,37 +4628,37 @@
         <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -4649,10 +4669,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4660,7 +4680,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>84</v>
@@ -4675,16 +4695,16 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4692,7 +4712,7 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>74</v>
@@ -4722,38 +4742,40 @@
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>74</v>
@@ -4761,14 +4783,12 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4789,16 +4809,16 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4836,19 +4856,17 @@
         <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4863,13 +4881,13 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4877,12 +4895,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4903,15 +4923,17 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4960,7 +4982,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4969,19 +4991,19 @@
         <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4989,21 +5011,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -5015,17 +5037,15 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -5062,37 +5082,37 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -5103,46 +5123,44 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
@@ -5166,52 +5184,52 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -5219,10 +5237,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5239,25 +5257,25 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -5282,13 +5300,13 @@
         <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>237</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>74</v>
@@ -5306,7 +5324,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -5321,13 +5339,13 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>74</v>
@@ -5335,18 +5353,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>84</v>
@@ -5364,15 +5382,17 @@
         <v>100</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -5420,7 +5440,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -5435,13 +5455,13 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -5449,21 +5469,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -5478,13 +5498,13 @@
         <v>100</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5534,13 +5554,13 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>96</v>
@@ -5549,13 +5569,13 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -5563,14 +5583,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5592,13 +5612,13 @@
         <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5648,7 +5668,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5663,13 +5683,13 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5677,10 +5697,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5706,13 +5726,13 @@
         <v>100</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5762,7 +5782,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5777,13 +5797,13 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5791,10 +5811,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5805,7 +5825,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5817,20 +5837,18 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5878,28 +5896,28 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5907,14 +5925,12 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5932,19 +5948,23 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5992,28 +6012,28 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>115</v>
+        <v>296</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>98</v>
+        <v>298</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -6021,12 +6041,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>74</v>
       </c>
@@ -6047,13 +6069,13 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6104,25 +6126,25 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -6133,10 +6155,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6147,7 +6169,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -6159,13 +6181,13 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6204,37 +6226,37 @@
         <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -6245,10 +6267,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6256,10 +6278,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -6271,24 +6293,22 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>74</v>
@@ -6318,37 +6338,37 @@
         <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -6359,10 +6379,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6370,7 +6390,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>84</v>
@@ -6385,22 +6405,24 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>302</v>
+        <v>128</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>207</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>74</v>
@@ -6418,13 +6440,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>305</v>
+        <v>74</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -6442,19 +6464,19 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -6474,7 +6496,7 @@
         <v>307</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6497,13 +6519,13 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>100</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>101</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>102</v>
+        <v>310</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6530,13 +6552,13 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>311</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -6554,7 +6576,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6563,16 +6585,16 @@
         <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
@@ -6583,21 +6605,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -6609,17 +6631,15 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -6656,37 +6676,37 @@
         <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6697,14 +6717,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6720,23 +6740,21 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>312</v>
+        <v>109</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6772,19 +6790,19 @@
         <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>114</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6796,13 +6814,13 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -6813,10 +6831,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6827,7 +6845,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -6836,19 +6854,23 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6896,25 +6918,25 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>103</v>
+        <v>321</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>104</v>
+        <v>323</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -6925,21 +6947,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6951,17 +6973,15 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6998,37 +7018,37 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -7039,21 +7059,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -7062,29 +7082,27 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
+        <v>109</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>328</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>74</v>
@@ -7114,37 +7132,37 @@
         <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>329</v>
+        <v>114</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>330</v>
+        <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>331</v>
+        <v>98</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -7155,10 +7173,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7181,24 +7199,26 @@
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>74</v>
@@ -7240,7 +7260,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7255,10 +7275,10 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -7269,10 +7289,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7295,20 +7315,18 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>344</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -7356,7 +7374,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7371,10 +7389,10 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -7385,10 +7403,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7411,19 +7429,19 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -7472,7 +7490,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7487,10 +7505,10 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
@@ -7501,10 +7519,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7527,19 +7545,19 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -7588,7 +7606,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7603,10 +7621,10 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
@@ -7617,10 +7635,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>238</v>
+        <v>363</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7643,19 +7661,19 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7704,7 +7722,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7719,10 +7737,10 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
@@ -7733,14 +7751,12 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7758,19 +7774,23 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7818,25 +7838,25 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>189</v>
+        <v>377</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>74</v>
+        <v>378</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>98</v>
+        <v>379</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7847,13 +7867,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>74</v>
@@ -7875,13 +7895,13 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7932,7 +7952,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7961,20 +7981,20 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>84</v>
@@ -7989,13 +8009,13 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>383</v>
+        <v>200</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8046,7 +8066,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -8064,7 +8084,7 @@
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
@@ -8075,46 +8095,44 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="D52" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>107</v>
+        <v>388</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>193</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>74</v>
       </c>
@@ -8150,19 +8168,19 @@
         <v>74</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>388</v>
+        <v>195</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8180,7 +8198,7 @@
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -8191,33 +8209,33 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>390</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>391</v>
@@ -8225,7 +8243,9 @@
       <c r="M53" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>393</v>
       </c>
@@ -8264,19 +8284,19 @@
         <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8288,27 +8308,27 @@
         <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>394</v>
+        <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>396</v>
+        <v>74</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>397</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8331,26 +8351,22 @@
         <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q54" t="s" s="2">
-        <v>403</v>
-      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
         <v>74</v>
       </c>
@@ -8394,13 +8410,13 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>96</v>
@@ -8409,24 +8425,24 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8449,24 +8465,26 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="P55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q55" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8510,7 +8528,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8522,27 +8540,27 @@
         <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8550,7 +8568,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>84</v>
@@ -8565,18 +8583,20 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
       </c>
@@ -8624,7 +8644,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8636,27 +8656,27 @@
         <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8664,7 +8684,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>84</v>
@@ -8679,16 +8699,16 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8738,7 +8758,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8750,13 +8770,13 @@
         <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>74</v>
@@ -8767,10 +8787,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8778,7 +8798,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>84</v>
@@ -8793,20 +8813,18 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>302</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8830,11 +8848,13 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z58" t="s" s="2">
-        <v>432</v>
+        <v>74</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>74</v>
@@ -8852,28 +8872,28 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>97</v>
+        <v>426</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>433</v>
+        <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>413</v>
+        <v>74</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -8881,10 +8901,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8895,7 +8915,7 @@
         <v>84</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -8907,18 +8927,20 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8942,29 +8964,29 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8979,13 +9001,13 @@
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>74</v>
@@ -8993,14 +9015,12 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>74</v>
       </c>
@@ -9009,7 +9029,7 @@
         <v>84</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -9021,16 +9041,16 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9056,29 +9076,29 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="Z60" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB60" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AA60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -9093,13 +9113,13 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -9107,20 +9127,20 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>84</v>
@@ -9135,16 +9155,16 @@
         <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9170,11 +9190,11 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -9192,7 +9212,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9207,13 +9227,13 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>74</v>
@@ -9221,13 +9241,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>74</v>
@@ -9249,16 +9269,16 @@
         <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9284,11 +9304,11 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -9306,7 +9326,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9321,13 +9341,13 @@
         <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>74</v>
@@ -9335,13 +9355,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>74</v>
@@ -9363,16 +9383,16 @@
         <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9398,11 +9418,11 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -9420,7 +9440,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9435,13 +9455,13 @@
         <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -9449,13 +9469,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>74</v>
@@ -9477,16 +9497,16 @@
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9512,11 +9532,11 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -9534,7 +9554,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9549,13 +9569,13 @@
         <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>74</v>
@@ -9563,13 +9583,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>74</v>
@@ -9591,16 +9611,16 @@
         <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9626,11 +9646,11 @@
         <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -9648,7 +9668,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9663,13 +9683,13 @@
         <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>74</v>
@@ -9677,13 +9697,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>74</v>
@@ -9705,16 +9725,16 @@
         <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9740,11 +9760,11 @@
         <v>74</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>74</v>
@@ -9762,7 +9782,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9777,13 +9797,13 @@
         <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>74</v>
@@ -9791,13 +9811,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>74</v>
@@ -9819,16 +9839,16 @@
         <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9854,11 +9874,11 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9876,7 +9896,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9891,13 +9911,13 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>74</v>
@@ -9905,13 +9925,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>74</v>
@@ -9933,16 +9953,16 @@
         <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9968,11 +9988,11 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9990,7 +10010,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -10005,13 +10025,13 @@
         <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>74</v>
@@ -10019,13 +10039,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>74</v>
@@ -10035,7 +10055,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -10047,16 +10067,16 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10082,11 +10102,11 @@
         <v>74</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>74</v>
@@ -10104,7 +10124,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -10119,13 +10139,13 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>74</v>
@@ -10133,12 +10153,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>74</v>
       </c>
@@ -10159,16 +10181,16 @@
         <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>476</v>
+        <v>308</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10194,13 +10216,11 @@
         <v>74</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>74</v>
+        <v>480</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>74</v>
@@ -10218,7 +10238,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -10230,27 +10250,27 @@
         <v>96</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>420</v>
+        <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>74</v>
+        <v>448</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>481</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10258,10 +10278,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -10270,19 +10290,19 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="N71" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10332,7 +10352,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -10344,19 +10364,19 @@
         <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="72">
@@ -10372,7 +10392,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>84</v>
@@ -10384,7 +10404,7 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>489</v>
@@ -10395,10 +10415,10 @@
       <c r="M72" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>492</v>
-      </c>
+      <c r="N72" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>74</v>
       </c>
@@ -10458,16 +10478,16 @@
         <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AK72" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>495</v>
-      </c>
       <c r="AM72" t="s" s="2">
-        <v>496</v>
+        <v>74</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>74</v>
@@ -10475,10 +10495,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10498,19 +10518,21 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>100</v>
+        <v>495</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>101</v>
+        <v>496</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>102</v>
+        <v>497</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>74</v>
       </c>
@@ -10558,28 +10580,28 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>103</v>
+        <v>494</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>74</v>
+        <v>499</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>74</v>
+        <v>500</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>104</v>
+        <v>501</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>74</v>
+        <v>502</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>74</v>
@@ -10587,10 +10609,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10598,10 +10620,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>499</v>
+        <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>74</v>
@@ -10613,13 +10635,13 @@
         <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10658,37 +10680,37 @@
         <v>74</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>74</v>
@@ -10699,23 +10721,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>75</v>
+        <v>505</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
@@ -10727,13 +10747,13 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>502</v>
+        <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>503</v>
+        <v>194</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10772,16 +10792,16 @@
         <v>74</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>114</v>
@@ -10813,20 +10833,20 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="B76" t="s" s="2">
-        <v>498</v>
-      </c>
       <c r="C76" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>84</v>
@@ -10841,13 +10861,13 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10927,13 +10947,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>74</v>
@@ -10955,13 +10975,13 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11041,18 +11061,20 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>84</v>
@@ -11064,20 +11086,18 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>163</v>
+        <v>516</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>513</v>
+        <v>193</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -11102,13 +11122,13 @@
         <v>74</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>515</v>
+        <v>74</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>516</v>
+        <v>74</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>74</v>
@@ -11126,28 +11146,28 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>517</v>
+        <v>114</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>518</v>
+        <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>519</v>
+        <v>74</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>520</v>
+        <v>74</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>521</v>
+        <v>74</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>74</v>
@@ -11155,10 +11175,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11166,7 +11186,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>84</v>
@@ -11181,20 +11201,18 @@
         <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>74</v>
       </c>
@@ -11218,13 +11236,13 @@
         <v>74</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>74</v>
+        <v>521</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>74</v>
+        <v>522</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>74</v>
@@ -11242,7 +11260,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -11251,19 +11269,19 @@
         <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>96</v>
+        <v>524</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>74</v>
@@ -11271,10 +11289,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11282,7 +11300,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>84</v>
@@ -11291,25 +11309,25 @@
         <v>74</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O80" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -11334,13 +11352,13 @@
         <v>74</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>536</v>
+        <v>74</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>537</v>
+        <v>74</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>74</v>
@@ -11358,7 +11376,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -11373,13 +11391,13 @@
         <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>235</v>
+        <v>535</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>74</v>
@@ -11387,10 +11405,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11407,24 +11425,26 @@
         <v>74</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>542</v>
+        <v>169</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>74</v>
       </c>
@@ -11448,13 +11468,13 @@
         <v>74</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>74</v>
+        <v>542</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>74</v>
+        <v>543</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>74</v>
@@ -11472,7 +11492,7 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
@@ -11487,13 +11507,13 @@
         <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>104</v>
+        <v>545</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>74</v>
+        <v>546</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>74</v>
@@ -11527,16 +11547,16 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>284</v>
+        <v>548</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>287</v>
+        <v>551</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11586,7 +11606,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11598,16 +11618,16 @@
         <v>96</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>292</v>
+        <v>104</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>74</v>
@@ -11615,10 +11635,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11638,19 +11658,19 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>552</v>
+        <v>290</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>555</v>
+        <v>293</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11700,28 +11720,28 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>556</v>
+        <v>298</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>74</v>
@@ -11755,15 +11775,17 @@
         <v>74</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>100</v>
+        <v>558</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>101</v>
+        <v>559</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>74</v>
@@ -11812,25 +11834,25 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>103</v>
+        <v>557</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>104</v>
+        <v>562</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>74</v>
@@ -11841,21 +11863,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>74</v>
@@ -11867,17 +11889,15 @@
         <v>74</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>74</v>
@@ -11914,37 +11934,37 @@
         <v>74</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>74</v>
@@ -11955,23 +11975,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>74</v>
@@ -11983,15 +12001,17 @@
         <v>74</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>561</v>
+        <v>107</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>74</v>
@@ -12028,16 +12048,16 @@
         <v>74</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>114</v>
@@ -12058,7 +12078,7 @@
         <v>74</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>74</v>
@@ -12069,13 +12089,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>74</v>
@@ -12097,13 +12117,13 @@
         <v>74</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12183,13 +12203,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>74</v>
@@ -12211,13 +12231,13 @@
         <v>74</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12297,46 +12317,44 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="D89" t="s" s="2">
-        <v>572</v>
+        <v>74</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>107</v>
+        <v>575</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>573</v>
+        <v>193</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>74</v>
       </c>
@@ -12384,7 +12402,7 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>575</v>
+        <v>114</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
@@ -12402,7 +12420,7 @@
         <v>74</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>74</v>
@@ -12413,14 +12431,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>74</v>
+        <v>578</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12433,24 +12451,26 @@
         <v>74</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>74</v>
       </c>
@@ -12474,13 +12494,13 @@
         <v>74</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>579</v>
+        <v>74</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>580</v>
+        <v>74</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>74</v>
@@ -12498,7 +12518,7 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
@@ -12510,13 +12530,13 @@
         <v>96</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>556</v>
+        <v>98</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>74</v>
@@ -12527,10 +12547,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12541,7 +12561,7 @@
         <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>74</v>
@@ -12553,15 +12573,17 @@
         <v>74</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>358</v>
+        <v>169</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>74</v>
@@ -12586,13 +12608,13 @@
         <v>74</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>74</v>
+        <v>585</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>74</v>
+        <v>586</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>74</v>
@@ -12610,13 +12632,13 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>96</v>
@@ -12628,7 +12650,7 @@
         <v>74</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>74</v>
@@ -12639,10 +12661,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12665,17 +12687,15 @@
         <v>74</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>585</v>
+        <v>364</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>588</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>74</v>
@@ -12724,7 +12744,7 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
@@ -12742,7 +12762,7 @@
         <v>74</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>74</v>
@@ -12753,10 +12773,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12779,16 +12799,16 @@
         <v>74</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12838,7 +12858,7 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
@@ -12856,7 +12876,7 @@
         <v>74</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>74</v>
@@ -12867,10 +12887,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12881,7 +12901,7 @@
         <v>75</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>74</v>
@@ -12893,15 +12913,17 @@
         <v>74</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>552</v>
+        <v>591</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="M94" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>74</v>
@@ -12950,13 +12972,13 @@
         <v>74</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>96</v>
@@ -12968,7 +12990,7 @@
         <v>74</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>74</v>
@@ -12979,10 +13001,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12993,7 +13015,7 @@
         <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>74</v>
@@ -13005,13 +13027,13 @@
         <v>74</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>100</v>
+        <v>558</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>101</v>
+        <v>599</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>102</v>
+        <v>600</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13062,25 +13084,25 @@
         <v>74</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>103</v>
+        <v>598</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>104</v>
+        <v>562</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>74</v>
@@ -13091,21 +13113,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>74</v>
@@ -13117,17 +13139,15 @@
         <v>74</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>74</v>
@@ -13164,37 +13184,37 @@
         <v>74</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>74</v>
@@ -13205,14 +13225,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>572</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13225,26 +13245,24 @@
         <v>74</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>573</v>
+        <v>108</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>574</v>
+        <v>109</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O97" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>74</v>
       </c>
@@ -13280,19 +13298,19 @@
         <v>74</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>575</v>
+        <v>114</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>75</v>
@@ -13321,44 +13339,46 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>74</v>
+        <v>578</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>74</v>
       </c>
@@ -13406,25 +13426,25 @@
         <v>74</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>74</v>
@@ -13435,10 +13455,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13446,7 +13466,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>84</v>
@@ -13461,16 +13481,16 @@
         <v>74</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13520,10 +13540,10 @@
         <v>74</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>84</v>
@@ -13532,13 +13552,13 @@
         <v>96</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>604</v>
+        <v>74</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>556</v>
+        <v>104</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>74</v>
@@ -13549,10 +13569,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13575,16 +13595,16 @@
         <v>74</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13634,7 +13654,7 @@
         <v>74</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
@@ -13646,13 +13666,13 @@
         <v>96</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>74</v>
+        <v>610</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>74</v>
@@ -13663,10 +13683,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13677,7 +13697,7 @@
         <v>75</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>74</v>
@@ -13689,20 +13709,18 @@
         <v>74</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>609</v>
+        <v>100</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>74</v>
       </c>
@@ -13750,30 +13768,146 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>420</v>
+        <v>97</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>613</v>
+        <v>562</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN101" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:18:17+00:00</t>
+    <t>2023-02-27T15:55:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3709" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="623">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T15:55:53+00:00</t>
+    <t>2023-03-06T10:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -982,7 +982,7 @@
     <t>JDV_J218-CNAMAmeliSecteurConventionnement-RASS dérivé de la TRE_ R282-CNAMAmeliSecteurConventionnement</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J218-CNAMAmeliSecteurConventionnement-ROR/FHIR/JDV-J218-CNAMAmeliSecteurConventionnement-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J130-CNAMAmeliSecteurConventionnement-RASS/FHIR/JDV-J130-CNAMAmeliSecteurConventionnement-RASS</t>
   </si>
   <si>
     <t>PractitionerRole.extension:contracted.value[x].id</t>
@@ -1185,6 +1185,15 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:contracted.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J218-CNAMAmeliSecteurConventionnement-ROR/FHIR/JDV-J218-CNAMAmeliSecteurConventionnement-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.extension:vitalAccepted</t>
@@ -2227,7 +2236,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN102"/>
+  <dimension ref="A1:AN103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2261,7 +2270,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="108.4375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="133.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="135.0390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
@@ -2524,7 +2533,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>84</v>
@@ -3549,7 +3558,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -6564,16 +6573,14 @@
         <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>220</v>
@@ -7870,7 +7877,7 @@
         <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>381</v>
@@ -7895,13 +7902,13 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>308</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7928,13 +7935,11 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>74</v>
+        <v>382</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -7952,19 +7957,19 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
@@ -8108,7 +8113,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>84</v>
@@ -8126,10 +8131,10 @@
         <v>388</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>389</v>
+        <v>200</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8198,7 +8203,7 @@
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -8209,46 +8214,44 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="B53" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>107</v>
+        <v>391</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
+        <v>193</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N53" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>393</v>
-      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>74</v>
       </c>
@@ -8284,19 +8287,19 @@
         <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>394</v>
+        <v>195</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8314,7 +8317,7 @@
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -8325,43 +8328,45 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O54" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -8398,19 +8403,19 @@
         <v>74</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8422,27 +8427,27 @@
         <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>400</v>
+        <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>401</v>
+        <v>98</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>403</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8465,26 +8470,22 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q55" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8528,13 +8529,13 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>96</v>
@@ -8543,24 +8544,24 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8583,24 +8584,26 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="R56" t="s" s="2">
         <v>74</v>
       </c>
@@ -8644,7 +8647,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8656,27 +8659,27 @@
         <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>296</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>419</v>
+        <v>74</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8684,7 +8687,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>84</v>
@@ -8699,18 +8702,20 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>422</v>
+        <v>290</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8758,7 +8763,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8770,27 +8775,27 @@
         <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>426</v>
+        <v>296</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>74</v>
+        <v>420</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>74</v>
+        <v>422</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>74</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8798,7 +8803,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>84</v>
@@ -8813,16 +8818,16 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8872,7 +8877,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8884,13 +8889,13 @@
         <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -8901,10 +8906,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8912,7 +8917,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>84</v>
@@ -8927,20 +8932,18 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>308</v>
+        <v>432</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="N59" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8964,11 +8967,13 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>438</v>
+        <v>74</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -8986,28 +8991,28 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>97</v>
+        <v>429</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>439</v>
+        <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>419</v>
+        <v>74</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>74</v>
@@ -9015,10 +9020,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9029,7 +9034,7 @@
         <v>84</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -9044,15 +9049,17 @@
         <v>308</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
       </c>
@@ -9076,29 +9083,29 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -9113,13 +9120,13 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -9127,14 +9134,12 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>74</v>
       </c>
@@ -9143,7 +9148,7 @@
         <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -9158,13 +9163,13 @@
         <v>308</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9190,29 +9195,29 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9227,13 +9232,13 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>74</v>
@@ -9244,7 +9249,7 @@
         <v>454</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>455</v>
@@ -9254,7 +9259,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>84</v>
@@ -9272,13 +9277,13 @@
         <v>308</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9326,7 +9331,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9341,13 +9346,13 @@
         <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>74</v>
@@ -9358,7 +9363,7 @@
         <v>457</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>458</v>
@@ -9386,13 +9391,13 @@
         <v>308</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9440,7 +9445,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9455,13 +9460,13 @@
         <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -9472,7 +9477,7 @@
         <v>460</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>461</v>
@@ -9500,13 +9505,13 @@
         <v>308</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9554,7 +9559,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9569,13 +9574,13 @@
         <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>74</v>
@@ -9586,7 +9591,7 @@
         <v>463</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>464</v>
@@ -9614,13 +9619,13 @@
         <v>308</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9668,7 +9673,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9683,13 +9688,13 @@
         <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>74</v>
@@ -9700,7 +9705,7 @@
         <v>466</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>467</v>
@@ -9728,13 +9733,13 @@
         <v>308</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9782,7 +9787,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9797,13 +9802,13 @@
         <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>74</v>
@@ -9814,7 +9819,7 @@
         <v>469</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>470</v>
@@ -9842,13 +9847,13 @@
         <v>308</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9896,7 +9901,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9911,13 +9916,13 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>74</v>
@@ -9928,7 +9933,7 @@
         <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>473</v>
@@ -9956,13 +9961,13 @@
         <v>308</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10010,7 +10015,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -10025,13 +10030,13 @@
         <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>74</v>
@@ -10042,7 +10047,7 @@
         <v>475</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>476</v>
@@ -10070,13 +10075,13 @@
         <v>308</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10124,7 +10129,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -10139,13 +10144,13 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>74</v>
@@ -10156,7 +10161,7 @@
         <v>478</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>479</v>
@@ -10169,7 +10174,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -10184,13 +10189,13 @@
         <v>308</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10238,7 +10243,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -10253,13 +10258,13 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>74</v>
@@ -10270,9 +10275,11 @@
         <v>481</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>74</v>
       </c>
@@ -10293,16 +10300,16 @@
         <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>482</v>
+        <v>308</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10328,13 +10335,11 @@
         <v>74</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>74</v>
+        <v>483</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>74</v>
@@ -10352,7 +10357,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -10364,27 +10369,27 @@
         <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>426</v>
+        <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>74</v>
+        <v>451</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>487</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10392,10 +10397,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>74</v>
@@ -10404,19 +10409,19 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10466,7 +10471,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -10478,27 +10483,27 @@
         <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>492</v>
+        <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>74</v>
+        <v>489</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>74</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10506,7 +10511,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>84</v>
@@ -10518,21 +10523,21 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>74</v>
       </c>
@@ -10580,7 +10585,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10592,16 +10597,16 @@
         <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>499</v>
+        <v>429</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>502</v>
+        <v>74</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>74</v>
@@ -10609,10 +10614,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10632,19 +10637,21 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>100</v>
+        <v>498</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>101</v>
+        <v>499</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>102</v>
+        <v>500</v>
       </c>
       <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>74</v>
       </c>
@@ -10692,28 +10699,28 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>103</v>
+        <v>497</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>74</v>
+        <v>502</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>74</v>
+        <v>503</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>104</v>
+        <v>504</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>74</v>
+        <v>505</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>74</v>
@@ -10721,10 +10728,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10732,10 +10739,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>505</v>
+        <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
@@ -10747,13 +10754,13 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10792,37 +10799,37 @@
         <v>74</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>74</v>
@@ -10833,23 +10840,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C76" t="s" s="2">
         <v>507</v>
       </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>75</v>
+        <v>508</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
@@ -10861,13 +10866,13 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>508</v>
+        <v>107</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>193</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>509</v>
+        <v>194</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10906,16 +10911,16 @@
         <v>74</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>114</v>
@@ -10947,20 +10952,20 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C77" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>84</v>
@@ -10975,13 +10980,13 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>193</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11061,13 +11066,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C78" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>74</v>
@@ -11089,13 +11094,13 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>193</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11175,18 +11180,20 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C79" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="B79" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>84</v>
@@ -11198,20 +11205,18 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>169</v>
+        <v>519</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>519</v>
+        <v>193</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="N79" t="s" s="2">
-        <v>276</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -11236,13 +11241,13 @@
         <v>74</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>521</v>
+        <v>74</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>522</v>
+        <v>74</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>74</v>
@@ -11260,28 +11265,28 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>523</v>
+        <v>114</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>524</v>
+        <v>96</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>525</v>
+        <v>74</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>526</v>
+        <v>74</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>527</v>
+        <v>74</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>74</v>
@@ -11289,10 +11294,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11300,7 +11305,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>84</v>
@@ -11315,20 +11320,18 @@
         <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>74</v>
       </c>
@@ -11352,13 +11355,13 @@
         <v>74</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>74</v>
+        <v>524</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>74</v>
+        <v>525</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>74</v>
@@ -11376,7 +11379,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -11385,19 +11388,19 @@
         <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>96</v>
+        <v>527</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>74</v>
@@ -11405,10 +11408,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11416,7 +11419,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>84</v>
@@ -11425,25 +11428,25 @@
         <v>74</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>74</v>
@@ -11468,13 +11471,13 @@
         <v>74</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>542</v>
+        <v>74</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>543</v>
+        <v>74</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>74</v>
@@ -11492,7 +11495,7 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
@@ -11507,13 +11510,13 @@
         <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>241</v>
+        <v>538</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>74</v>
@@ -11521,10 +11524,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11541,24 +11544,26 @@
         <v>74</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>548</v>
+        <v>169</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>74</v>
       </c>
@@ -11582,13 +11587,13 @@
         <v>74</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>74</v>
+        <v>545</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>74</v>
+        <v>546</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>74</v>
@@ -11606,7 +11611,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11621,13 +11626,13 @@
         <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>104</v>
+        <v>548</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>74</v>
+        <v>549</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>74</v>
@@ -11635,10 +11640,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11661,16 +11666,16 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>290</v>
+        <v>551</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11720,7 +11725,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11732,16 +11737,16 @@
         <v>96</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>296</v>
+        <v>97</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>298</v>
+        <v>104</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>74</v>
@@ -11749,10 +11754,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11772,19 +11777,19 @@
         <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>560</v>
-      </c>
       <c r="N84" t="s" s="2">
-        <v>561</v>
+        <v>293</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11834,28 +11839,28 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>562</v>
+        <v>298</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>74</v>
@@ -11863,10 +11868,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11889,15 +11894,17 @@
         <v>74</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>100</v>
+        <v>561</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>101</v>
+        <v>562</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>74</v>
@@ -11946,25 +11953,25 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>103</v>
+        <v>560</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>104</v>
+        <v>565</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>74</v>
@@ -11975,21 +11982,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>74</v>
@@ -12001,17 +12008,15 @@
         <v>74</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>74</v>
@@ -12048,37 +12053,37 @@
         <v>74</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>74</v>
@@ -12089,23 +12094,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>74</v>
@@ -12117,15 +12120,17 @@
         <v>74</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>567</v>
+        <v>107</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>74</v>
@@ -12162,16 +12167,16 @@
         <v>74</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>114</v>
@@ -12192,7 +12197,7 @@
         <v>74</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>74</v>
@@ -12203,13 +12208,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C88" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>74</v>
@@ -12231,13 +12236,13 @@
         <v>74</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L88" t="s" s="2">
         <v>193</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12317,13 +12322,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C89" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>74</v>
@@ -12345,13 +12350,13 @@
         <v>74</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L89" t="s" s="2">
         <v>193</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12431,46 +12436,44 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C90" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="B90" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>578</v>
+        <v>74</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>107</v>
+        <v>578</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M90" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>393</v>
-      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>74</v>
       </c>
@@ -12518,7 +12521,7 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>581</v>
+        <v>114</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
@@ -12536,7 +12539,7 @@
         <v>74</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>74</v>
@@ -12547,14 +12550,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12567,24 +12570,26 @@
         <v>74</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="M91" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="N91" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>74</v>
       </c>
@@ -12608,13 +12613,13 @@
         <v>74</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>585</v>
+        <v>74</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>586</v>
+        <v>74</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>74</v>
@@ -12632,7 +12637,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -12644,13 +12649,13 @@
         <v>96</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>562</v>
+        <v>98</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>74</v>
@@ -12661,10 +12666,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12675,7 +12680,7 @@
         <v>75</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>74</v>
@@ -12687,15 +12692,17 @@
         <v>74</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>364</v>
+        <v>169</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>74</v>
@@ -12720,13 +12727,13 @@
         <v>74</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>74</v>
+        <v>588</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>74</v>
+        <v>589</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>74</v>
@@ -12744,13 +12751,13 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>96</v>
@@ -12762,7 +12769,7 @@
         <v>74</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>74</v>
@@ -12799,17 +12806,15 @@
         <v>74</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>594</v>
-      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>74</v>
@@ -12876,7 +12881,7 @@
         <v>74</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>74</v>
@@ -12887,10 +12892,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12913,16 +12918,16 @@
         <v>74</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12972,7 +12977,7 @@
         <v>74</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
@@ -12990,7 +12995,7 @@
         <v>74</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>74</v>
@@ -13015,7 +13020,7 @@
         <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>74</v>
@@ -13027,7 +13032,7 @@
         <v>74</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>599</v>
@@ -13035,7 +13040,9 @@
       <c r="M95" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="N95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>74</v>
@@ -13090,7 +13097,7 @@
         <v>75</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>96</v>
@@ -13102,7 +13109,7 @@
         <v>74</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>74</v>
@@ -13127,7 +13134,7 @@
         <v>75</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>74</v>
@@ -13139,13 +13146,13 @@
         <v>74</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>100</v>
+        <v>561</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>101</v>
+        <v>602</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>102</v>
+        <v>603</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13196,25 +13203,25 @@
         <v>74</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>103</v>
+        <v>601</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>104</v>
+        <v>565</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>74</v>
@@ -13225,21 +13232,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>74</v>
@@ -13251,17 +13258,15 @@
         <v>74</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>74</v>
@@ -13298,37 +13303,37 @@
         <v>74</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>74</v>
@@ -13339,14 +13344,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>578</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13359,26 +13364,24 @@
         <v>74</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>579</v>
+        <v>108</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>580</v>
+        <v>109</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O98" t="s" s="2">
-        <v>393</v>
-      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>74</v>
       </c>
@@ -13414,19 +13417,19 @@
         <v>74</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>581</v>
+        <v>114</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
@@ -13455,44 +13458,46 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>74</v>
       </c>
@@ -13540,25 +13545,25 @@
         <v>74</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>74</v>
@@ -13580,7 +13585,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>84</v>
@@ -13595,7 +13600,7 @@
         <v>74</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>608</v>
@@ -13604,7 +13609,7 @@
         <v>609</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13657,7 +13662,7 @@
         <v>607</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>84</v>
@@ -13666,13 +13671,13 @@
         <v>96</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>296</v>
+        <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>610</v>
+        <v>74</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>562</v>
+        <v>104</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>74</v>
@@ -13683,10 +13688,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13709,16 +13714,16 @@
         <v>74</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="M101" t="s" s="2">
-        <v>613</v>
-      </c>
       <c r="N101" t="s" s="2">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13768,7 +13773,7 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
@@ -13780,13 +13785,13 @@
         <v>96</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>74</v>
+        <v>613</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>74</v>
@@ -13811,7 +13816,7 @@
         <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>74</v>
@@ -13823,20 +13828,18 @@
         <v>74</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="M102" t="s" s="2">
-        <v>617</v>
-      </c>
       <c r="N102" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>618</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>74</v>
       </c>
@@ -13890,24 +13893,140 @@
         <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>426</v>
+        <v>97</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="AM102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN102" t="s" s="2">
+      <c r="M103" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>74</v>
       </c>
     </row>
